--- a/TF.xlsx
+++ b/TF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregglickert/Documents/GitHub/YeastClassification/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregglickert/Desktop/yeast/YeastClassification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49850622-649D-8146-A820-013D2DD4174A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DB3487-71EA-AA4F-9FA2-D6738BEF9B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="520" windowWidth="28800" windowHeight="15880" xr2:uid="{36D74953-CBB3-463C-B8D1-1C33B5A6E2B3}"/>
+    <workbookView xWindow="1960" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{36D74953-CBB3-463C-B8D1-1C33B5A6E2B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9983" uniqueCount="6198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10396" uniqueCount="6200">
   <si>
     <t>Clone location (plate-well)</t>
   </si>
@@ -20606,30 +20606,6 @@
     <t>AT1G35460.1</t>
   </si>
   <si>
-    <t>U21-D2</t>
-  </si>
-  <si>
-    <t>U21-D3</t>
-  </si>
-  <si>
-    <t>U21-D4</t>
-  </si>
-  <si>
-    <t>U21-D5</t>
-  </si>
-  <si>
-    <t>U21-D6</t>
-  </si>
-  <si>
-    <t>U21-D7</t>
-  </si>
-  <si>
-    <t>U21-D8</t>
-  </si>
-  <si>
-    <t>U21-D9</t>
-  </si>
-  <si>
     <t>U21-D10</t>
   </si>
   <si>
@@ -20639,33 +20615,6 @@
     <t>U21-D12</t>
   </si>
   <si>
-    <t>U21-E1</t>
-  </si>
-  <si>
-    <t>U21-E2</t>
-  </si>
-  <si>
-    <t>U21-E3</t>
-  </si>
-  <si>
-    <t>U21-E4</t>
-  </si>
-  <si>
-    <t>U21-E5</t>
-  </si>
-  <si>
-    <t>U21-E6</t>
-  </si>
-  <si>
-    <t>U21-E7</t>
-  </si>
-  <si>
-    <t>U21-E8</t>
-  </si>
-  <si>
-    <t>U21-E9</t>
-  </si>
-  <si>
     <t>U21-E10</t>
   </si>
   <si>
@@ -20675,33 +20624,6 @@
     <t>U21-E12</t>
   </si>
   <si>
-    <t>U21-F1</t>
-  </si>
-  <si>
-    <t>U21-F2</t>
-  </si>
-  <si>
-    <t>U21-F3</t>
-  </si>
-  <si>
-    <t>U21-F4</t>
-  </si>
-  <si>
-    <t>U21-F5</t>
-  </si>
-  <si>
-    <t>U21-F6</t>
-  </si>
-  <si>
-    <t>U21-F7</t>
-  </si>
-  <si>
-    <t>U21-F8</t>
-  </si>
-  <si>
-    <t>U21-F9</t>
-  </si>
-  <si>
     <t>U21-F10</t>
   </si>
   <si>
@@ -20711,33 +20633,6 @@
     <t>U21-F12</t>
   </si>
   <si>
-    <t>U21-G1</t>
-  </si>
-  <si>
-    <t>U21-G2</t>
-  </si>
-  <si>
-    <t>U21-G3</t>
-  </si>
-  <si>
-    <t>U21-G4</t>
-  </si>
-  <si>
-    <t>U21-G5</t>
-  </si>
-  <si>
-    <t>U21-G6</t>
-  </si>
-  <si>
-    <t>U21-G7</t>
-  </si>
-  <si>
-    <t>U21-G8</t>
-  </si>
-  <si>
-    <t>U21-G9</t>
-  </si>
-  <si>
     <t>U21-G10</t>
   </si>
   <si>
@@ -20747,33 +20642,6 @@
     <t>U21-G12</t>
   </si>
   <si>
-    <t>U21-H1</t>
-  </si>
-  <si>
-    <t>U21-H2</t>
-  </si>
-  <si>
-    <t>U21-H3</t>
-  </si>
-  <si>
-    <t>U21-H4</t>
-  </si>
-  <si>
-    <t>U21-H5</t>
-  </si>
-  <si>
-    <t>U21-H6</t>
-  </si>
-  <si>
-    <t>U21-H7</t>
-  </si>
-  <si>
-    <t>U21-H8</t>
-  </si>
-  <si>
-    <t>U21-H9</t>
-  </si>
-  <si>
     <t>U21-H10</t>
   </si>
   <si>
@@ -20781,6 +20649,144 @@
   </si>
   <si>
     <t>U21-H12</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>U21-D02</t>
+  </si>
+  <si>
+    <t>incomplete</t>
+  </si>
+  <si>
+    <t>U21-D03</t>
+  </si>
+  <si>
+    <t>U21-D04</t>
+  </si>
+  <si>
+    <t>U21-D05</t>
+  </si>
+  <si>
+    <t>U21-D06</t>
+  </si>
+  <si>
+    <t>U21-D07</t>
+  </si>
+  <si>
+    <t>U21-D08</t>
+  </si>
+  <si>
+    <t>U21-D09</t>
+  </si>
+  <si>
+    <t>U21-E01</t>
+  </si>
+  <si>
+    <t>U21-E02</t>
+  </si>
+  <si>
+    <t>U21-E03</t>
+  </si>
+  <si>
+    <t>U21-E04</t>
+  </si>
+  <si>
+    <t>U21-E05</t>
+  </si>
+  <si>
+    <t>U21-E06</t>
+  </si>
+  <si>
+    <t>U21-E07</t>
+  </si>
+  <si>
+    <t>U21-E08</t>
+  </si>
+  <si>
+    <t>U21-E09</t>
+  </si>
+  <si>
+    <t>U21-F01</t>
+  </si>
+  <si>
+    <t>U21-F02</t>
+  </si>
+  <si>
+    <t>U21-F03</t>
+  </si>
+  <si>
+    <t>U21-F04</t>
+  </si>
+  <si>
+    <t>U21-F05</t>
+  </si>
+  <si>
+    <t>U21-F06</t>
+  </si>
+  <si>
+    <t>U21-F07</t>
+  </si>
+  <si>
+    <t>U21-F08</t>
+  </si>
+  <si>
+    <t>U21-F09</t>
+  </si>
+  <si>
+    <t>U21-G01</t>
+  </si>
+  <si>
+    <t>U21-G02</t>
+  </si>
+  <si>
+    <t>U21-G03</t>
+  </si>
+  <si>
+    <t>U21-G04</t>
+  </si>
+  <si>
+    <t>U21-G05</t>
+  </si>
+  <si>
+    <t>U21-G06</t>
+  </si>
+  <si>
+    <t>U21-G07</t>
+  </si>
+  <si>
+    <t>U21-G08</t>
+  </si>
+  <si>
+    <t>U21-G09</t>
+  </si>
+  <si>
+    <t>U21-H01</t>
+  </si>
+  <si>
+    <t>U21-H02</t>
+  </si>
+  <si>
+    <t>U21-H03</t>
+  </si>
+  <si>
+    <t>U21-H04</t>
+  </si>
+  <si>
+    <t>U21-H05</t>
+  </si>
+  <si>
+    <t>U21-H06</t>
+  </si>
+  <si>
+    <t>U21-H07</t>
+  </si>
+  <si>
+    <t>U21-H08</t>
+  </si>
+  <si>
+    <t>U21-H09</t>
   </si>
 </sst>
 </file>
@@ -20945,7 +20951,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -21041,6 +21047,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -21360,8 +21369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C86457-5A6D-48E2-8775-ED41431711FE}">
   <dimension ref="A1:H2017"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A1987" workbookViewId="0">
+      <selection activeCell="B2021" sqref="B2021"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -64718,299 +64727,1538 @@
       <c r="G1958" s="30"/>
       <c r="H1958" s="28"/>
     </row>
-    <row r="1959" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1959" t="s">
+    <row r="1959" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1959" s="5" t="s">
+        <v>6155</v>
+      </c>
+      <c r="B1959" s="28" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1959" s="28" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1959" s="29" t="s">
+        <v>6156</v>
+      </c>
+      <c r="E1959" s="28" t="s">
+        <v>6156</v>
+      </c>
+      <c r="F1959" s="28" t="s">
+        <v>6156</v>
+      </c>
+      <c r="G1959" s="30" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1959" s="28" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1960" s="5" t="s">
+        <v>6157</v>
+      </c>
+      <c r="B1960" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1960" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1960" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1960" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1960" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1960" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1960" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1961" s="5" t="s">
+        <v>6158</v>
+      </c>
+      <c r="B1961" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1961" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1961" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1961" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1961" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1961" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1961" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1962" s="5" t="s">
+        <v>6159</v>
+      </c>
+      <c r="B1962" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1962" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1962" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1962" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1962" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1962" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1962" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1963" s="5" t="s">
+        <v>6160</v>
+      </c>
+      <c r="B1963" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1963" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1963" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1963" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1963" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1963" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1963" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1964" s="5" t="s">
+        <v>6161</v>
+      </c>
+      <c r="B1964" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1964" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1964" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1964" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1964" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1964" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1964" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1965" s="5" t="s">
+        <v>6162</v>
+      </c>
+      <c r="B1965" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1965" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1965" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1965" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1965" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1965" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1965" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1966" s="5" t="s">
+        <v>6163</v>
+      </c>
+      <c r="B1966" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1966" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1966" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1966" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1966" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1966" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1966" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1967" s="5" t="s">
         <v>6139</v>
       </c>
-    </row>
-    <row r="1960" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1960" t="s">
+      <c r="B1967" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1967" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1967" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1967" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1967" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1967" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1967" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1968" s="5" t="s">
         <v>6140</v>
       </c>
-    </row>
-    <row r="1961" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1961" t="s">
+      <c r="B1968" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1968" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1968" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1968" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1968" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1968" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1968" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1969" s="5" t="s">
         <v>6141</v>
       </c>
-    </row>
-    <row r="1962" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1962" t="s">
+      <c r="B1969" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1969" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1969" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1969" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1969" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1969" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1969" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1970" s="5" t="s">
+        <v>6164</v>
+      </c>
+      <c r="B1970" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1970" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1970" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1970" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1970" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1970" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1970" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1971" s="5" t="s">
+        <v>6165</v>
+      </c>
+      <c r="B1971" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1971" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1971" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1971" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1971" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1971" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1971" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1972" s="5" t="s">
+        <v>6166</v>
+      </c>
+      <c r="B1972" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1972" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1972" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1972" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1972" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1972" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1972" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1973" s="5" t="s">
+        <v>6167</v>
+      </c>
+      <c r="B1973" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1973" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1973" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1973" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1973" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1973" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1973" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1974" s="5" t="s">
+        <v>6168</v>
+      </c>
+      <c r="B1974" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1974" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1974" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1974" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1974" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1974" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1974" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1975" s="5" t="s">
+        <v>6169</v>
+      </c>
+      <c r="B1975" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1975" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1975" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1975" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1975" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1975" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1975" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1976" s="5" t="s">
+        <v>6170</v>
+      </c>
+      <c r="B1976" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1976" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1976" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1976" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1976" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1976" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1976" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1977" s="5" t="s">
+        <v>6171</v>
+      </c>
+      <c r="B1977" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1977" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1977" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1977" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1977" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1977" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1977" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1978" s="5" t="s">
+        <v>6172</v>
+      </c>
+      <c r="B1978" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1978" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1978" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1978" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1978" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1978" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1978" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1979" s="5" t="s">
         <v>6142</v>
       </c>
-    </row>
-    <row r="1963" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1963" t="s">
+      <c r="B1979" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1979" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1979" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1979" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1979" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1979" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1979" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1980" s="5" t="s">
         <v>6143</v>
       </c>
-    </row>
-    <row r="1964" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1964" t="s">
+      <c r="B1980" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1980" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1980" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1980" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1980" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1980" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1980" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1981" s="5" t="s">
         <v>6144</v>
       </c>
-    </row>
-    <row r="1965" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1965" t="s">
+      <c r="B1981" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1981" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1981" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1981" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1981" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1981" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1981" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1982" s="5" t="s">
+        <v>6173</v>
+      </c>
+      <c r="B1982" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1982" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1982" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1982" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1982" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1982" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1982" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1983" s="5" t="s">
+        <v>6174</v>
+      </c>
+      <c r="B1983" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1983" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1983" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1983" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1983" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1983" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1983" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1984" s="5" t="s">
+        <v>6175</v>
+      </c>
+      <c r="B1984" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1984" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1984" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1984" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1984" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1984" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1984" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1985" s="5" t="s">
+        <v>6176</v>
+      </c>
+      <c r="B1985" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1985" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1985" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1985" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1985" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1985" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1985" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1986" s="5" t="s">
+        <v>6177</v>
+      </c>
+      <c r="B1986" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1986" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1986" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1986" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1986" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1986" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1986" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1987" s="5" t="s">
+        <v>6178</v>
+      </c>
+      <c r="B1987" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1987" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1987" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1987" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1987" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1987" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1987" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1988" s="5" t="s">
+        <v>6179</v>
+      </c>
+      <c r="B1988" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1988" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1988" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1988" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1988" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1988" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1988" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1989" s="5" t="s">
+        <v>6180</v>
+      </c>
+      <c r="B1989" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1989" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1989" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1989" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1989" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1989" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1989" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1990" s="5" t="s">
+        <v>6181</v>
+      </c>
+      <c r="B1990" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1990" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1990" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1990" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1990" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1990" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1990" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1991" s="5" t="s">
         <v>6145</v>
       </c>
-    </row>
-    <row r="1966" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1966" t="s">
+      <c r="B1991" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1991" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1991" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1991" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1991" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1991" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1991" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1992" s="5" t="s">
         <v>6146</v>
       </c>
-    </row>
-    <row r="1967" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1967" t="s">
+      <c r="B1992" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1992" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1992" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1992" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1992" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1992" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1992" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1993" s="5" t="s">
         <v>6147</v>
       </c>
-    </row>
-    <row r="1968" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1968" t="s">
+      <c r="B1993" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1993" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1993" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1993" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1993" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1993" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1993" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1994" s="5" t="s">
+        <v>6182</v>
+      </c>
+      <c r="B1994" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1994" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1994" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1994" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1994" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1994" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1994" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1995" s="5" t="s">
+        <v>6183</v>
+      </c>
+      <c r="B1995" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1995" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1995" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1995" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1995" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1995" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1995" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1996" s="19" t="s">
+        <v>6184</v>
+      </c>
+      <c r="B1996" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1996" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1996" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1996" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1996" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1996" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1996" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1997" s="19" t="s">
+        <v>6185</v>
+      </c>
+      <c r="B1997" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1997" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1997" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1997" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1997" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1997" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1997" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1998" s="19" t="s">
+        <v>6186</v>
+      </c>
+      <c r="B1998" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1998" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1998" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1998" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1998" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1998" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1998" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1999" s="5" t="s">
+        <v>6187</v>
+      </c>
+      <c r="B1999" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1999" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1999" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E1999" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F1999" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G1999" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H1999" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2000" s="5" t="s">
+        <v>6188</v>
+      </c>
+      <c r="B2000" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C2000" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D2000" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E2000" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F2000" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G2000" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H2000" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2001" s="5" t="s">
+        <v>6189</v>
+      </c>
+      <c r="B2001" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C2001" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D2001" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E2001" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F2001" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G2001" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H2001" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2002" s="5" t="s">
+        <v>6190</v>
+      </c>
+      <c r="B2002" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C2002" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D2002" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E2002" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F2002" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G2002" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H2002" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2003" s="5" t="s">
         <v>6148</v>
       </c>
-    </row>
-    <row r="1969" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1969" t="s">
+      <c r="B2003" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C2003" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D2003" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E2003" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F2003" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G2003" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H2003" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2004" s="5" t="s">
         <v>6149</v>
       </c>
-    </row>
-    <row r="1970" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1970" t="s">
+      <c r="B2004" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C2004" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D2004" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E2004" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F2004" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G2004" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H2004" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2005" s="5" t="s">
         <v>6150</v>
       </c>
-    </row>
-    <row r="1971" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1971" t="s">
+      <c r="B2005" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C2005" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D2005" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E2005" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F2005" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G2005" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H2005" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2006" s="5" t="s">
+        <v>6191</v>
+      </c>
+      <c r="B2006" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C2006" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D2006" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E2006" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F2006" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G2006" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H2006" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2007" s="5" t="s">
+        <v>6192</v>
+      </c>
+      <c r="B2007" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C2007" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D2007" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E2007" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F2007" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G2007" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H2007" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2008" s="5" t="s">
+        <v>6193</v>
+      </c>
+      <c r="B2008" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C2008" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D2008" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E2008" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F2008" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G2008" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H2008" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2009" s="5" t="s">
+        <v>6194</v>
+      </c>
+      <c r="B2009" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C2009" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D2009" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E2009" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F2009" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G2009" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H2009" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2010" s="5" t="s">
+        <v>6195</v>
+      </c>
+      <c r="B2010" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C2010" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D2010" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E2010" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F2010" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G2010" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H2010" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2011" s="5" t="s">
+        <v>6196</v>
+      </c>
+      <c r="B2011" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C2011" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D2011" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E2011" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F2011" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G2011" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H2011" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2012" s="5" t="s">
+        <v>6197</v>
+      </c>
+      <c r="B2012" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C2012" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D2012" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E2012" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F2012" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G2012" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H2012" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2013" s="5" t="s">
+        <v>6198</v>
+      </c>
+      <c r="B2013" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C2013" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D2013" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E2013" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F2013" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G2013" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H2013" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2014" s="5" t="s">
+        <v>6199</v>
+      </c>
+      <c r="B2014" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C2014" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D2014" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E2014" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F2014" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G2014" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H2014" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2015" s="5" t="s">
         <v>6151</v>
       </c>
-    </row>
-    <row r="1972" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1972" t="s">
+      <c r="B2015" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C2015" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D2015" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E2015" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F2015" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G2015" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H2015" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2016" s="5" t="s">
         <v>6152</v>
       </c>
-    </row>
-    <row r="1973" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1973" t="s">
+      <c r="B2016" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C2016" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D2016" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E2016" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F2016" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G2016" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H2016" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2017" s="5" t="s">
         <v>6153</v>
       </c>
-    </row>
-    <row r="1974" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1974" t="s">
+      <c r="B2017" s="34" t="s">
         <v>6154</v>
       </c>
-    </row>
-    <row r="1975" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1975" t="s">
-        <v>6155</v>
-      </c>
-    </row>
-    <row r="1976" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1976" t="s">
-        <v>6156</v>
-      </c>
-    </row>
-    <row r="1977" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1977" t="s">
-        <v>6157</v>
-      </c>
-    </row>
-    <row r="1978" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1978" t="s">
-        <v>6158</v>
-      </c>
-    </row>
-    <row r="1979" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1979" t="s">
-        <v>6159</v>
-      </c>
-    </row>
-    <row r="1980" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1980" t="s">
-        <v>6160</v>
-      </c>
-    </row>
-    <row r="1981" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1981" t="s">
-        <v>6161</v>
-      </c>
-    </row>
-    <row r="1982" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1982" t="s">
-        <v>6162</v>
-      </c>
-    </row>
-    <row r="1983" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1983" t="s">
-        <v>6163</v>
-      </c>
-    </row>
-    <row r="1984" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1984" t="s">
-        <v>6164</v>
-      </c>
-    </row>
-    <row r="1985" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1985" t="s">
-        <v>6165</v>
-      </c>
-    </row>
-    <row r="1986" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1986" t="s">
-        <v>6166</v>
-      </c>
-    </row>
-    <row r="1987" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1987" t="s">
-        <v>6167</v>
-      </c>
-    </row>
-    <row r="1988" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1988" t="s">
-        <v>6168</v>
-      </c>
-    </row>
-    <row r="1989" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1989" t="s">
-        <v>6169</v>
-      </c>
-    </row>
-    <row r="1990" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1990" t="s">
-        <v>6170</v>
-      </c>
-    </row>
-    <row r="1991" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1991" t="s">
-        <v>6171</v>
-      </c>
-    </row>
-    <row r="1992" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1992" t="s">
-        <v>6172</v>
-      </c>
-    </row>
-    <row r="1993" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1993" t="s">
-        <v>6173</v>
-      </c>
-    </row>
-    <row r="1994" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1994" t="s">
-        <v>6174</v>
-      </c>
-    </row>
-    <row r="1995" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1995" t="s">
-        <v>6175</v>
-      </c>
-    </row>
-    <row r="1996" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1996" t="s">
-        <v>6176</v>
-      </c>
-    </row>
-    <row r="1997" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1997" t="s">
-        <v>6177</v>
-      </c>
-    </row>
-    <row r="1998" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1998" t="s">
-        <v>6178</v>
-      </c>
-    </row>
-    <row r="1999" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1999" t="s">
-        <v>6179</v>
-      </c>
-    </row>
-    <row r="2000" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2000" t="s">
-        <v>6180</v>
-      </c>
-    </row>
-    <row r="2001" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2001" t="s">
-        <v>6181</v>
-      </c>
-    </row>
-    <row r="2002" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2002" t="s">
-        <v>6182</v>
-      </c>
-    </row>
-    <row r="2003" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2003" t="s">
-        <v>6183</v>
-      </c>
-    </row>
-    <row r="2004" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2004" t="s">
-        <v>6184</v>
-      </c>
-    </row>
-    <row r="2005" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2005" t="s">
-        <v>6185</v>
-      </c>
-    </row>
-    <row r="2006" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2006" t="s">
-        <v>6186</v>
-      </c>
-    </row>
-    <row r="2007" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2007" t="s">
-        <v>6187</v>
-      </c>
-    </row>
-    <row r="2008" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2008" t="s">
-        <v>6188</v>
-      </c>
-    </row>
-    <row r="2009" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2009" t="s">
-        <v>6189</v>
-      </c>
-    </row>
-    <row r="2010" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2010" t="s">
-        <v>6190</v>
-      </c>
-    </row>
-    <row r="2011" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2011" t="s">
-        <v>6191</v>
-      </c>
-    </row>
-    <row r="2012" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2012" t="s">
-        <v>6192</v>
-      </c>
-    </row>
-    <row r="2013" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2013" t="s">
-        <v>6193</v>
-      </c>
-    </row>
-    <row r="2014" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2014" t="s">
-        <v>6194</v>
-      </c>
-    </row>
-    <row r="2015" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2015" t="s">
-        <v>6195</v>
-      </c>
-    </row>
-    <row r="2016" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2016" t="s">
-        <v>6196</v>
-      </c>
-    </row>
-    <row r="2017" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2017" t="s">
-        <v>6197</v>
+      <c r="C2017" s="34" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D2017" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E2017" t="s">
+        <v>6154</v>
+      </c>
+      <c r="F2017" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G2017" t="s">
+        <v>6154</v>
+      </c>
+      <c r="H2017" t="s">
+        <v>6154</v>
       </c>
     </row>
   </sheetData>
